--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>psd文件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>login.html,indent.html,login-head.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBF瀹樼綉椤甸潰20140805.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story.html,404.html,pay-mid.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,6 +445,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>psd文件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>story.html,404.html,pay-mid.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBF鹿脵脥酶脪鲁脙忙-赂枚脠脣脰脨脨脛 露漏碌楼鹿脺脌铆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal-info.html,personal-password.html,personal-list.html,personal-show.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,15 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="42.75" customWidth="1"/>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -451,6 +460,14 @@
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
